--- a/Project_Docs/Broker_App_API_Tracking.xlsx
+++ b/Project_Docs/Broker_App_API_Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\MyData\meBroker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\MyData\meBroker\DotNetBackend\Project_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0153925-DC67-4860-B7E1-5F25030189BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3C2AF-BD44-4E98-9A97-11AEAC8D1693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Git-Branches" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="364">
   <si>
     <t>Phase</t>
   </si>
@@ -591,363 +591,6 @@
     <t>feature/user-roles</t>
   </si>
   <si>
-    <t>feature/orders</t>
-  </si>
-  <si>
-    <t>feature/order-create</t>
-  </si>
-  <si>
-    <t>Order Creation Screen</t>
-  </si>
-  <si>
-    <t>POST /api/orders/create</t>
-  </si>
-  <si>
-    <t>feature/order-tracking</t>
-  </si>
-  <si>
-    <t>Order Tracking Screen</t>
-  </si>
-  <si>
-    <t>GET /api/orders/track/{id}</t>
-  </si>
-  <si>
-    <t>feature/order-history</t>
-  </si>
-  <si>
-    <t>Order History</t>
-  </si>
-  <si>
-    <t>GET /api/orders/history</t>
-  </si>
-  <si>
-    <t>feature/common</t>
-  </si>
-  <si>
-    <t>feature/common-config</t>
-  </si>
-  <si>
-    <t>System Configurations</t>
-  </si>
-  <si>
-    <t>GET /api/common/configs</t>
-  </si>
-  <si>
-    <t>feature/client</t>
-  </si>
-  <si>
-    <t>feature/client-dashboard</t>
-  </si>
-  <si>
-    <t>Client Dashboard</t>
-  </si>
-  <si>
-    <t>GET /api/client/dashboard</t>
-  </si>
-  <si>
-    <t>feature/client-reviews</t>
-  </si>
-  <si>
-    <t>Reviews &amp; Ratings</t>
-  </si>
-  <si>
-    <t>POST /api/client/review</t>
-  </si>
-  <si>
-    <t>feature/broker</t>
-  </si>
-  <si>
-    <t>feature/broker-list</t>
-  </si>
-  <si>
-    <t>Broker List Screen</t>
-  </si>
-  <si>
-    <t>feature/broker-details</t>
-  </si>
-  <si>
-    <t>Broker Profile Screen</t>
-  </si>
-  <si>
-    <t>GET /api/broker/{id}</t>
-  </si>
-  <si>
-    <t>feature/broker-orders</t>
-  </si>
-  <si>
-    <t>Broker Orders</t>
-  </si>
-  <si>
-    <t>feature/broker-analytics</t>
-  </si>
-  <si>
-    <t>Broker Dashboard</t>
-  </si>
-  <si>
-    <t>GET /api/broker/analytics</t>
-  </si>
-  <si>
-    <t>feature/driver</t>
-  </si>
-  <si>
-    <t>feature/driver-assignments</t>
-  </si>
-  <si>
-    <t>Assigned Orders</t>
-  </si>
-  <si>
-    <t>feature/driver-tracking</t>
-  </si>
-  <si>
-    <t>Driver GPS Tracking</t>
-  </si>
-  <si>
-    <t>feature/driver-ratings</t>
-  </si>
-  <si>
-    <t>Driver Ratings</t>
-  </si>
-  <si>
-    <t>POST /api/driver/review</t>
-  </si>
-  <si>
-    <t>feature/coupons-shops-owner</t>
-  </si>
-  <si>
-    <t>feature/coupons-management</t>
-  </si>
-  <si>
-    <t>Coupons Management</t>
-  </si>
-  <si>
-    <t>feature/shop-owners-dashboard</t>
-  </si>
-  <si>
-    <t>Shop Owners Dashboard</t>
-  </si>
-  <si>
-    <t>GET /api/shop-owners/dashboard</t>
-  </si>
-  <si>
-    <t>feature/payment</t>
-  </si>
-  <si>
-    <t>feature/payment-gateway</t>
-  </si>
-  <si>
-    <t>Checkout Page</t>
-  </si>
-  <si>
-    <t>POST /api/payment/checkout</t>
-  </si>
-  <si>
-    <t>feature/payment-invoice</t>
-  </si>
-  <si>
-    <t>Invoice Screen</t>
-  </si>
-  <si>
-    <t>GET /api/payment/invoice/{id}</t>
-  </si>
-  <si>
-    <t>feature/pricing</t>
-  </si>
-  <si>
-    <t>feature/pricing-rules</t>
-  </si>
-  <si>
-    <t>Pricing Rules Management</t>
-  </si>
-  <si>
-    <t>GET /api/pricing/rules</t>
-  </si>
-  <si>
-    <t>feature/notification</t>
-  </si>
-  <si>
-    <t>feature/email-notifications</t>
-  </si>
-  <si>
-    <t>Email Notifications</t>
-  </si>
-  <si>
-    <t>POST /api/notifications/email</t>
-  </si>
-  <si>
-    <t>feature/push-notifications</t>
-  </si>
-  <si>
-    <t>Push Notifications</t>
-  </si>
-  <si>
-    <t>POST /api/notifications/push</t>
-  </si>
-  <si>
-    <t>feature/admin</t>
-  </si>
-  <si>
-    <t>feature/admin-user-management</t>
-  </si>
-  <si>
-    <t>Admin User Management</t>
-  </si>
-  <si>
-    <t>feature/admin-analytics</t>
-  </si>
-  <si>
-    <t>System Analytics Dashboard</t>
-  </si>
-  <si>
-    <t>GET /api/admin/analytics</t>
-  </si>
-  <si>
-    <t>feature/admin-settings</t>
-  </si>
-  <si>
-    <t>General Settings</t>
-  </si>
-  <si>
-    <t>PUT /api/admin/settings</t>
-  </si>
-  <si>
-    <r>
-      <t>GET /api/broker/list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>GET /api/broker/search</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /api/broker/orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>POST /api/broker/order</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /api/driver/orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>PUT /api/driver/accept/{id}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /api/driver/location/{id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>PUT /api/driver/update-location</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /api/coupons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>POST /api/coupons/create</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET /api/admin/users</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>PUT /api/admin/update-user</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">feature/auth-verification	</t>
   </si>
   <si>
@@ -1047,9 +690,6 @@
     <t>feature/language-management</t>
   </si>
   <si>
-    <t>feature/language-list-all</t>
-  </si>
-  <si>
     <t>feature/language-select-one</t>
   </si>
   <si>
@@ -1059,12 +699,6 @@
     <t>Vehicle Types Management</t>
   </si>
   <si>
-    <t>feature/vehicle-types-list-all</t>
-  </si>
-  <si>
-    <t>feature/vehicle-types-select-one</t>
-  </si>
-  <si>
     <t>feature/language-update-many</t>
   </si>
   <si>
@@ -1077,12 +711,6 @@
     <t>/api/v1/languages/update-many</t>
   </si>
   <si>
-    <t>feature/vehicle-types-translations-list-all</t>
-  </si>
-  <si>
-    <t>feature/vehicle-types-translations-select-one</t>
-  </si>
-  <si>
     <t>feature/vehicle-types-translations-update-many</t>
   </si>
   <si>
@@ -1119,24 +747,12 @@
     <t>Vehicle Brands Management</t>
   </si>
   <si>
-    <t>feature/vehicle-brands-list-all</t>
-  </si>
-  <si>
-    <t>feature/vehicle-brands-select-one</t>
-  </si>
-  <si>
     <t>feature/vehicle-brands-add-many</t>
   </si>
   <si>
     <t>feature/vehicle-brands-update-many</t>
   </si>
   <si>
-    <t>/api/v1/vehicle-brands/list</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicle-brands/{id}</t>
-  </si>
-  <si>
     <t>/api/v1/vehicle-brands/add-many</t>
   </si>
   <si>
@@ -1146,24 +762,12 @@
     <t>feature/vehicle-Brands-translations-management</t>
   </si>
   <si>
-    <t>feature/vehicle-brands-translations-list-all</t>
-  </si>
-  <si>
-    <t>feature/vehicle-brands-translations-select-one</t>
-  </si>
-  <si>
     <t>feature/vehicle-brands-translations-add-many</t>
   </si>
   <si>
     <t>feature/vehicle-brands-translations-update-many</t>
   </si>
   <si>
-    <t>/api/v1/vehicle-brands-translations/{id}</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicle-brands-translations/list</t>
-  </si>
-  <si>
     <t>/api/v1/vehicle-brands-translations/add-many</t>
   </si>
   <si>
@@ -1176,24 +780,12 @@
     <t>Vehicle Models Management</t>
   </si>
   <si>
-    <t>feature/vehicle-models-list-all</t>
-  </si>
-  <si>
-    <t>feature/vehicle-models-select-one</t>
-  </si>
-  <si>
     <t>feature/vehicle-models-add-many</t>
   </si>
   <si>
     <t>feature/vehicle-models-update-many</t>
   </si>
   <si>
-    <t>/api/v1/vehicle-models/list</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicle-models/{id}</t>
-  </si>
-  <si>
     <t>/api/v1/vehicle-models/add-many</t>
   </si>
   <si>
@@ -1206,75 +798,27 @@
     <t>Vehicle Models Translations Management</t>
   </si>
   <si>
-    <t>feature/vehicle-models-translations-list-all</t>
-  </si>
-  <si>
-    <t>feature/vehicle-models-translations-select-one</t>
-  </si>
-  <si>
     <t>feature/vehicle-models-translations-add-many</t>
   </si>
   <si>
     <t>feature/vehicle-models-translations-update-many</t>
   </si>
   <si>
-    <t>/api/v1/vehicle-models-translations/list</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicle-models-translations/{id}</t>
-  </si>
-  <si>
     <t>/api/v1/vehicle-models-translations/add-many</t>
   </si>
   <si>
     <t>/api/v1/vehicle-models-translations/update-many</t>
   </si>
   <si>
-    <t>feature/vehicle-models-select-one-by-brand-id</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicle-models/select-one-by-brand-id//{id}</t>
-  </si>
-  <si>
-    <t>feature/vehicle-models-translations-select-one-by-brand-id</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicle-models-translations/select-one-by-brand-id/{id}</t>
-  </si>
-  <si>
     <t>feature/vehicles-management</t>
   </si>
   <si>
     <t>Vehicles Management</t>
   </si>
   <si>
-    <t>feature/vehicles-list-all</t>
-  </si>
-  <si>
-    <t>feature/vehicles-select-one</t>
-  </si>
-  <si>
     <t>feature/vehicles-update-many</t>
   </si>
   <si>
-    <t>feature/vehicles-select-one-by-filter</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicles/list</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicles/{id}</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicles/select-one-by-filter</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicles/add</t>
-  </si>
-  <si>
-    <t>feature/vehicles-add</t>
-  </si>
-  <si>
     <t>Handles user login by verifying credentials and returning an access token.</t>
   </si>
   <si>
@@ -1305,24 +849,15 @@
     <t>User Profile Management</t>
   </si>
   <si>
-    <t>feature/user-profile-list-all</t>
-  </si>
-  <si>
     <t>feature/user-profile-update</t>
   </si>
   <si>
     <t>feature/user-profile-update-many</t>
   </si>
   <si>
-    <t>feature/user-profile-select-one</t>
-  </si>
-  <si>
     <t>/api/v1/user/profile/select-one/{id}</t>
   </si>
   <si>
-    <t>/api/v1/user/profile/list-all</t>
-  </si>
-  <si>
     <t>Retrieves a list of all user profiles.</t>
   </si>
   <si>
@@ -1335,9 +870,6 @@
     <t>Updates multiple user profiles in bulk.</t>
   </si>
   <si>
-    <t>/api/v1/user/roles/list-all</t>
-  </si>
-  <si>
     <t>/api/v1/user/roles/select-one/{id}</t>
   </si>
   <si>
@@ -1347,9 +879,6 @@
     <t>Updates a specific role using id.</t>
   </si>
   <si>
-    <t>/api/v1/languages/list-all</t>
-  </si>
-  <si>
     <t>/api/v1/languages/select-one/{id}</t>
   </si>
   <si>
@@ -1365,12 +894,6 @@
     <t>Updates multiple languages in bulk.</t>
   </si>
   <si>
-    <t>/api/v1/vehicle-types/list-all</t>
-  </si>
-  <si>
-    <t>/api/v1/vehicle-types/select-one/{id}</t>
-  </si>
-  <si>
     <t>Retrieve a list of all vehicle types</t>
   </si>
   <si>
@@ -1383,9 +906,6 @@
     <t>Update multiple vehicle types at once</t>
   </si>
   <si>
-    <t>/api/v1/vehicle-types-translations/list-all</t>
-  </si>
-  <si>
     <t>Retrieve a list of all vehicle type translations</t>
   </si>
   <si>
@@ -1395,17 +915,329 @@
     <t>Update multiple vehicle type translations</t>
   </si>
   <si>
-    <t>/api/v1/vehicle-types-translations/select-one/{VehicleTypeID}/{LanguageID}</t>
-  </si>
-  <si>
     <t>Retrieve a specific vehicle type translation by VehicleTypeID &amp; LanguageID</t>
+  </si>
+  <si>
+    <t>feature/vehicle-models-select-by-brand-id</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-models/select-by-brand-id//{id}</t>
+  </si>
+  <si>
+    <t>Vehicle Brands Translations Management</t>
+  </si>
+  <si>
+    <t>feature/vehicle-models-translations-select-by-brand-id</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-models-translations/select-by-brand-id/{id}</t>
+  </si>
+  <si>
+    <t>Locations Management</t>
+  </si>
+  <si>
+    <t>feature/locations-management</t>
+  </si>
+  <si>
+    <t>/api/v1/locations</t>
+  </si>
+  <si>
+    <t>Retrieve a list of all locations</t>
+  </si>
+  <si>
+    <t>/api/v1/locations/{id}</t>
+  </si>
+  <si>
+    <t>Retrieve details of a specific location by ID</t>
+  </si>
+  <si>
+    <t>Add a new location</t>
+  </si>
+  <si>
+    <t>feature/vehicles-get-all</t>
+  </si>
+  <si>
+    <t>feature/vehicle-models-translations-get-all</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-models-translations/get-all</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-models/get-all</t>
+  </si>
+  <si>
+    <t>feature/vehicle-models-get-all</t>
+  </si>
+  <si>
+    <t>feature/vehicle-brands-translations-get-all</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-brands-translations/get-all</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-brands/get-all</t>
+  </si>
+  <si>
+    <t>feature/vehicle-brands-get-all</t>
+  </si>
+  <si>
+    <t>feature/vehicle-types-translations-get-all</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-types-translations/get-all</t>
+  </si>
+  <si>
+    <t>feature/vehicle-types-get-all</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-types/get-all</t>
+  </si>
+  <si>
+    <t>feature/language-get-all</t>
+  </si>
+  <si>
+    <t>/api/v1/languages/get-all</t>
+  </si>
+  <si>
+    <t>/api/v1/user/roles/get-all</t>
+  </si>
+  <si>
+    <t>Update multiple details of an existing locations</t>
+  </si>
+  <si>
+    <t>feature/vehicles-get-by-id</t>
+  </si>
+  <si>
+    <t>feature/vehicles-select-multiple-by-filter</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicles/select-multiple-by-filter</t>
+  </si>
+  <si>
+    <t>feature/vehicles-add-one</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicles</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicles/update-many</t>
+  </si>
+  <si>
+    <t>/api/v1/locations/update-many</t>
+  </si>
+  <si>
+    <t>Retrieve a list of all vehicles</t>
+  </si>
+  <si>
+    <t>Retrieve details of a specific vehicle by ID</t>
+  </si>
+  <si>
+    <t>Retrieve vehicles based on filters (e.g., make, model, year)</t>
+  </si>
+  <si>
+    <t>Add a new vehicle</t>
+  </si>
+  <si>
+    <t>Update multiple vehicle model translations</t>
+  </si>
+  <si>
+    <t>Update multiple vehicles</t>
+  </si>
+  <si>
+    <t>Retrieve a list of all vehicle model translations</t>
+  </si>
+  <si>
+    <t>Retrieve vehicle model translations filtered by brand ID</t>
+  </si>
+  <si>
+    <t>Add multiple vehicle model translations</t>
+  </si>
+  <si>
+    <t>Retrieve a list of all vehicle models</t>
+  </si>
+  <si>
+    <t>Retrieve details of a specific vehicle model by ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieve vehicle models filtered by brand ID </t>
+  </si>
+  <si>
+    <t>Add multiple vehicle models</t>
+  </si>
+  <si>
+    <t>Update multiple vehicle models</t>
+  </si>
+  <si>
+    <t>Retrieve a list of all vehicle brand translations</t>
+  </si>
+  <si>
+    <t>Retrieve details of a specific vehicle brand translation by ID</t>
+  </si>
+  <si>
+    <t>Add multiple vehicle brand translations</t>
+  </si>
+  <si>
+    <t>Update multiple vehicle brand translations</t>
+  </si>
+  <si>
+    <t>Retrieve a list of all vehicle brands</t>
+  </si>
+  <si>
+    <t>Retrieve details of a specific vehicle brand by ID</t>
+  </si>
+  <si>
+    <t>Add multiple vehicle brands</t>
+  </si>
+  <si>
+    <t>Update multiple vehicle brands</t>
+  </si>
+  <si>
+    <t>feature/locations-get-by-id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature/locations-add-new	</t>
+  </si>
+  <si>
+    <t>feature/locations-update-multiple</t>
+  </si>
+  <si>
+    <t>/api/v1/user/profile</t>
+  </si>
+  <si>
+    <t>feature/user-profiles</t>
+  </si>
+  <si>
+    <t>feature/user-profiles-select-one</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicles/get-by-id/{id}</t>
+  </si>
+  <si>
+    <t>feature/vehicle-models-translations-get-by-modelid-languageid</t>
+  </si>
+  <si>
+    <t>This endpoint retrieves the translation details for a specific vehicle model based on the given ModelId and LanguageId</t>
+  </si>
+  <si>
+    <t>feature/vehicle-brands-translations-brandid-languageid</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-brands-translations/{brandid}/{languageid}</t>
+  </si>
+  <si>
+    <t>feature/vehicle-types-translations-vehicle-type-id</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-types-translations/{VehicleTypeID}/{LanguageID}</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-models-translations/{Modelid}/{Languageid}</t>
+  </si>
+  <si>
+    <t>feature/vehicle-models-get-by-id</t>
+  </si>
+  <si>
+    <t>feature/vehicle-brands-get-by-id</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-models/get-by-id/{id}</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-brands/get-by-id/{id}</t>
+  </si>
+  <si>
+    <t>/api/v1/vehicle-types/get-by-id/{id}</t>
+  </si>
+  <si>
+    <t>feature/vehicle-types-get-by-id</t>
+  </si>
+  <si>
+    <t>feature/countries-management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/api/v1/countries	</t>
+  </si>
+  <si>
+    <t>Countries Management</t>
+  </si>
+  <si>
+    <t>Retrieves all countries.</t>
+  </si>
+  <si>
+    <t>feature/locations-get-all</t>
+  </si>
+  <si>
+    <t>feature/countries-get-all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/api/v1/countries/{CountryID}	</t>
+  </si>
+  <si>
+    <t>Retrieves a specific country by its CountryID</t>
+  </si>
+  <si>
+    <t>/api/v1/countries</t>
+  </si>
+  <si>
+    <t>Creates a new country record in the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updates an existing country record by its CountryID.	</t>
+  </si>
+  <si>
+    <t>feature/countries-get-by-id</t>
+  </si>
+  <si>
+    <t>feature/countries-update-multiple</t>
+  </si>
+  <si>
+    <t>UserByCountries</t>
+  </si>
+  <si>
+    <t>/api/v1/userbycountries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieves all user-country assignments.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creates a new user-country assignment record in the database.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieves a specific user-country assignment by UserCountryID.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updates an existing user-country assignment by UserCountryID.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/api/v1/userbycountries/{UserCountryID}	</t>
+  </si>
+  <si>
+    <t>/api/v1/userbycountries/{UserCountryID}</t>
+  </si>
+  <si>
+    <t>feature/user-by-countries-management</t>
+  </si>
+  <si>
+    <t>feature/userbycountries-get-all</t>
+  </si>
+  <si>
+    <t>feature/userbycountries-get-by-id</t>
+  </si>
+  <si>
+    <t>feature/countries-add-new</t>
+  </si>
+  <si>
+    <t>feature/userbycountriesadd-new</t>
+  </si>
+  <si>
+    <t>feature/userbycountries-update-multiple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,12 +1265,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1515,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1667,11 +1493,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1693,164 +1528,143 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2153,250 +1967,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22" customHeight="1">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22" customHeight="1">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22" customHeight="1">
-      <c r="A7" s="19">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22" customHeight="1">
-      <c r="A8" s="15">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="22" customHeight="1">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22" customHeight="1">
-      <c r="A10" s="15">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22" customHeight="1">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22" customHeight="1">
-      <c r="A12" s="15">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22" customHeight="1">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="18" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2409,7 +2223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -2460,7 +2274,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="35" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="1">
@@ -2487,7 +2301,7 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="9"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -2512,7 +2326,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="16" customHeight="1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -2537,7 +2351,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15.5" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -2560,7 +2374,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -2575,7 +2389,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -2590,7 +2404,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="9"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -2605,7 +2419,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="9"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -2620,7 +2434,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="34" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="1">
@@ -2637,7 +2451,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="9"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -2652,7 +2466,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="9"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -2667,7 +2481,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="9"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -2682,7 +2496,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="9"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -2697,7 +2511,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="1">
@@ -2714,7 +2528,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="9"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -2729,7 +2543,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -2744,7 +2558,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -2759,7 +2573,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -2769,7 +2583,7 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -2784,7 +2598,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -2799,7 +2613,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -2814,7 +2628,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="34" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="1">
@@ -2828,7 +2642,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -2840,7 +2654,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -2852,7 +2666,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -2864,7 +2678,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="1">
@@ -2878,7 +2692,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
@@ -2890,7 +2704,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="1">
         <v>28</v>
       </c>
@@ -2902,7 +2716,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="1">
@@ -2919,7 +2733,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -2934,7 +2748,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="1">
         <v>31</v>
       </c>
@@ -2949,7 +2763,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="1">
         <v>32</v>
       </c>
@@ -2964,7 +2778,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -2979,7 +2793,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="1">
@@ -2990,7 +2804,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
@@ -2999,7 +2813,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -3008,7 +2822,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="9"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -3017,7 +2831,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="1">
@@ -3028,7 +2842,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -3037,7 +2851,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -3046,7 +2860,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="1">
@@ -3057,7 +2871,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="9"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -3066,7 +2880,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -3075,7 +2889,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="9"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
@@ -3084,7 +2898,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
@@ -3115,21 +2929,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339DCA47-53CC-4E1E-AA36-C0F0200F94DB}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.54296875" customWidth="1"/>
     <col min="2" max="2" width="42.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -3137,1543 +2951,1521 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28" customHeight="1" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="40"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="40"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="40"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="41"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="52">
+        <v>2</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="53"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="53"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1">
-      <c r="A2" s="53">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="31" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="53"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="53"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="54"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="48">
+        <v>3</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="49"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="49"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="54"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="G17" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="50"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="36">
+        <v>4</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="37"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="37"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="54"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="54"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="54"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="54"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="55"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K8" s="52"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="49">
-        <v>2</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>353</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K9" s="52"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="50"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="50"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="50"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K12" s="32"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="50"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="63"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="28">
-        <v>3</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="33"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="33"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="29"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="37">
-        <v>4</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="48"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="48"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K21" s="24"/>
+      <c r="G21" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="38"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F22" s="32" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K22" s="25"/>
+      <c r="G22" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="28">
+      <c r="A23" s="48">
         <v>5</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="F23" s="31" t="s">
+      <c r="B23" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K23" s="24"/>
+      <c r="G23" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="33"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="F24" s="32" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K24" s="25"/>
+      <c r="G24" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="33"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F25" s="31" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K25" s="24"/>
+      <c r="G25" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="29"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="F26" s="32" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K26" s="25"/>
+      <c r="G26" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="37">
+      <c r="A27" s="36">
         <v>6</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="F27" s="31" t="s">
+      <c r="B27" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K27" s="24"/>
+      <c r="G27" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="48"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="F28" s="32" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K28" s="25"/>
+      <c r="G28" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="48"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" s="31" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K29" s="24"/>
+      <c r="G29" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="38"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="F30" s="32" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K30" s="25"/>
+      <c r="G30" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="28">
+      <c r="A31" s="48">
         <v>7</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="D31" s="34" t="s">
+      <c r="B31" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="49"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="49"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K33" s="19"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="50"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="36">
+        <v>8</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="F31" s="31" t="s">
+      <c r="D35" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="33"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="F32" s="32" t="s">
+      <c r="G35" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35" s="19"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="37"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="33"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="F33" s="31" t="s">
+      <c r="G36" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="37"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="19"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="37"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K33" s="24"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="29"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="37">
-        <v>8</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="48"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="K36" s="25"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="48"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="K37" s="24"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="48"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="24" t="s">
+      <c r="G38" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="K38" s="25"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="38"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="F39" s="31" t="s">
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="48">
+        <v>9</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K40" s="19"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="49"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="49"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" s="44"/>
+      <c r="E42" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K42" s="19"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="49"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="44"/>
+      <c r="E43" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="50"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="K39" s="24"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="28">
-        <v>9</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="E40" s="24" t="s">
+      <c r="G44" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K44" s="19"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="36">
+        <v>10</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K45" s="19"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="37"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="37"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K47" s="19"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="37"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="51"/>
+      <c r="E48" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="38"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K49" s="19"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="48">
+        <v>11</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K50" s="19"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="49"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D51" s="56"/>
+      <c r="E51" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="49"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" s="56"/>
+      <c r="E52" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K52" s="19"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="49"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="D53" s="56"/>
+      <c r="E53" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="36">
+        <v>12</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="F54" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="33"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="F41" s="32" t="s">
+      <c r="G54" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K54" s="19"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="37"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D55" s="51"/>
+      <c r="E55" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F55" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="K41" s="25"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="33"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="F42" s="31" t="s">
+      <c r="G55" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="37"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" s="51"/>
+      <c r="E56" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56" s="19"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="37"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="51"/>
+      <c r="E57" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="48">
+        <v>13</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="K42" s="24"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="33"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="F43" s="32" t="s">
+      <c r="G58" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K58" s="19"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="49"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D59" s="56"/>
+      <c r="E59" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="49"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D60" s="56"/>
+      <c r="E60" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="F60" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="K43" s="25"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="29"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="F44" s="31" t="s">
+      <c r="G60" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K60" s="19"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="49"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" s="56"/>
+      <c r="E61" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="F61" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="28">
-        <v>10</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="K45" s="24"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="33"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="K46" s="25"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="33"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="33"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="K48" s="25"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="29"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="K49" s="24"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:11" s="40" customFormat="1">
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="J55" s="45"/>
-    </row>
-    <row r="56" spans="1:11" s="40" customFormat="1">
-      <c r="B56" s="43"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="J56" s="45"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="B57" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" s="11"/>
-      <c r="C58" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" s="11"/>
-      <c r="C59" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="B60" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="B61" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="B62" s="11"/>
-      <c r="C62" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="B63" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="B64" s="11"/>
-      <c r="C64" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="11"/>
-      <c r="C65" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="11"/>
-      <c r="C66" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="11"/>
-      <c r="C68" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="11"/>
-      <c r="C69" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="11"/>
-      <c r="C71" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="11"/>
-      <c r="C73" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="11"/>
-      <c r="C76" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="11"/>
-      <c r="C78" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="11"/>
-      <c r="C79" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>222</v>
-      </c>
+      <c r="G61" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K61" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="D40:D44"/>
+  <mergeCells count="43">
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D27:D30"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="D45:D49"/>
@@ -4683,17 +4475,9 @@
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="D40:D44"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="C4:C5"/>
@@ -4703,22 +4487,29 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{760D0E7B-D89E-420D-A160-17596E363794}">
           <x14:formula1>
             <xm:f>'System Drop Down List'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F49</xm:sqref>
+          <xm:sqref>F2:F61</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6842CDD8-2211-41FE-8533-6BAA001D7EAD}">
           <x14:formula1>
             <xm:f>'System Drop Down List'!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J49</xm:sqref>
+          <xm:sqref>J2:J61</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4737,21 +4528,21 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.54296875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" style="28" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.90625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="3.90625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>241</v>
+      <c r="A1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4759,10 +4550,10 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4770,10 +4561,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4781,10 +4572,10 @@
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4792,42 +4583,42 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Docs/Broker_App_API_Tracking.xlsx
+++ b/Project_Docs/Broker_App_API_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\MyData\meBroker\DotNetBackend\Project_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A18708-4A82-4574-892C-1B8CBE84FE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2937FE68-ABE1-47A0-ABCF-39E0DE8D0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2380,10 +2380,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2674,8 +2674,8 @@
   <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2737,10 +2737,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="1">
@@ -3757,7 +3757,7 @@
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>296</v>
@@ -6556,6 +6556,72 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="A73:A77"/>
     <mergeCell ref="A69:A72"/>
@@ -6568,72 +6634,6 @@
     <mergeCell ref="B65:B68"/>
     <mergeCell ref="A61:A64"/>
     <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A162:A165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7094,7 +7094,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="1">
